--- a/biology/Botanique/Olea_borneensis/Olea_borneensis.xlsx
+++ b/biology/Botanique/Olea_borneensis/Olea_borneensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea borneensis Boerl. est un végétal appartenant au genre Olea. C'est un arbre qui peut atteindre 15 m de haut et qui pousse en Malaisie et aux Philippines. Il est appelé Obah ou Mangkas (au Sabah) .
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mayepea pallida Merr. (1906),
 Linociera pallida (Merr.) Merr. (1906),
@@ -548,16 +562,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-C'est un arbre qui peut atteindre 15 m de haut. Les jeunes branches sont glabres. 
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui peut atteindre 15 m de haut. Les jeunes branches sont glabres. 
 Le pétiole des feuilles mesure de 5 à 10 mm de longueur. Les feuilles sont subcoriaces, glabres. Le limbe des feuilles est oblancéolé à elliptique-oblong, parfois étroit, de (7-)9 à 14(-18) cm de long par (2-)3,5 à 5(-7) cm de largeur, la base aigüe, atténuée sur le pétiole, l'apex aigu à obtus, graduellement à très court acuminé, les marges sont entières ou légèrement dentelées dans la moitié supérieure. Les nervures primaires  sont au nombre de 6 à 7, parfois 9, saillantes ou plus sombres au-dessus, sinon la nervuration est sombre.
-Appareil reproducteur
-Les inflorescences sont axillaires, étroitement en cyme paniculée. Les fleurs sont abondantes et plus ou moins groupées, glabres ou à peine pileuses, avec des bractées coriaces, plus ou moins lancéolées, de 2 mm de long. Le calice est glabre, les bords ciliés, le tube mesurant de 0,25 à 0,5 mm de long. La corolle est blanchâtre ou jaunâtre, charnue, le tube de 0,5 à 1,5 mm, les lobes indivisés-valvulés, franchement obtus, de 1 à 1,5 mm de long. Les étamines sont largement ellipsoïdes, de 0,75 mm de long, avorté dans les fleurs femelles, avec des filets de 0,2 mm de long. L'ovaire est conique, de 2 mm de long, fusionnant en un style bilobé de 0,25 mm de long, avorté dans les fleurs mâles et mesurant alors 0,3 mm. Le fruit n'est pas connu.
-Habitat et répartition géographique
-On le trouve dans les forêts, sur les versants des collines et les sommets des arêtes.
-On le trouve en Asie tropicale :
-Malaisie : Sabah.
-Philippines : Luzon, San Mariano, Mindanao ...</t>
+</t>
         </is>
       </c>
     </row>
@@ -582,10 +595,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires, étroitement en cyme paniculée. Les fleurs sont abondantes et plus ou moins groupées, glabres ou à peine pileuses, avec des bractées coriaces, plus ou moins lancéolées, de 2 mm de long. Le calice est glabre, les bords ciliés, le tube mesurant de 0,25 à 0,5 mm de long. La corolle est blanchâtre ou jaunâtre, charnue, le tube de 0,5 à 1,5 mm, les lobes indivisés-valvulés, franchement obtus, de 1 à 1,5 mm de long. Les étamines sont largement ellipsoïdes, de 0,75 mm de long, avorté dans les fleurs femelles, avec des filets de 0,2 mm de long. L'ovaire est conique, de 2 mm de long, fusionnant en un style bilobé de 0,25 mm de long, avorté dans les fleurs mâles et mesurant alors 0,3 mm. Le fruit n'est pas connu.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,10 +632,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat et répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On le trouve dans les forêts, sur les versants des collines et les sommets des arêtes.
+On le trouve en Asie tropicale :
+Malaisie : Sabah.
+Philippines : Luzon, San Mariano, Mindanao ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_borneensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_borneensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_borneensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_borneensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
